--- a/data/trans_bre/P15_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,22 +641,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>55,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-34,6%</t>
+          <t>-27,53%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-25,28%</t>
+          <t>-25,35%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,41</t>
+          <t>-2,52; 1,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,04</t>
+          <t>-2,63; 7,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 2,52</t>
+          <t>-11,19; 3,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 6,25</t>
+          <t>-17,91; 5,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 374,85</t>
+          <t>-49,45; 365,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-68,83; 29,97</t>
+          <t>-63,05; 40,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 36,39</t>
+          <t>-56,05; 27,52</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,33%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-10,2%</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,36</t>
+          <t>-1,05; 2,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,6</t>
+          <t>-2,04; 1,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,53</t>
+          <t>-2,38; 3,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,58</t>
+          <t>-5,2; 5,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 6,86</t>
+          <t>-13,16; 8,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,85; 718,24</t>
+          <t>-85,35; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 74,51</t>
+          <t>-45,19; 94,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 37,23</t>
+          <t>-41,46; 41,29</t>
         </is>
       </c>
     </row>
@@ -881,47 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>284,89%</t>
+          <t>285,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-24,25%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>30,06%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,56</t>
+          <t>-0,42; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,53</t>
+          <t>-1,51; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,34</t>
+          <t>-1,18; 4,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 6,43</t>
+          <t>-2,83; 6,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 12,48</t>
+          <t>-2,23; 12,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -969,17 +969,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 301,42</t>
+          <t>-33,68; 324,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 102,8</t>
+          <t>-25,62; 99,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 95,06</t>
+          <t>-11,16; 89,34</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1001,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>-4,21%</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1054,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,16</t>
+          <t>0,56; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,04</t>
+          <t>-1,09; 1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,34</t>
+          <t>-1,97; 3,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 6,88</t>
+          <t>-1,23; 7,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 6,74</t>
+          <t>-8,85; 7,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,99; 194,79</t>
+          <t>-47,75; 195,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 87,53</t>
+          <t>-12,17; 105,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 41,84</t>
+          <t>-34,35; 45,52</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1146,17 +1146,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>101,76%</t>
+          <t>119,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>103,79%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1174,27 +1174,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,05</t>
+          <t>-0,77; 2,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,85</t>
+          <t>-0,54; 6,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,23</t>
+          <t>-5,58; 2,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 1,53</t>
+          <t>-14,4; 1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 450,83</t>
+          <t>-16,27; 416,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 64,97</t>
+          <t>-56,91; 52,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 8,23</t>
+          <t>-54,23; 5,84</t>
         </is>
       </c>
     </row>
@@ -1241,27 +1241,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>203,73%</t>
+          <t>205,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-67,87%</t>
+          <t>-67,85%</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,33</t>
+          <t>-1,33; 1,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,0</t>
+          <t>-3,59; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,35</t>
+          <t>-1,01; 4,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,21</t>
+          <t>0,24; 7,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,66; -2,7</t>
+          <t>-16,21; -2,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 840,94</t>
+          <t>-56,26; 742,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 1559,12</t>
+          <t>-31,59; 1377,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-91,4; -19,32</t>
+          <t>-90,79; -20,45</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>339,32%</t>
+          <t>339,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>-18,46%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,33</t>
+          <t>0,27; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,47</t>
+          <t>-0,69; 0,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,77</t>
+          <t>0,03; 2,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,57</t>
+          <t>-1,32; 2,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,53</t>
+          <t>-7,26; -0,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,57; 1717,78</t>
+          <t>31,89; 1734,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 135,96</t>
+          <t>-68,95; 167,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 135,57</t>
+          <t>-1,44; 124,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 35,99</t>
+          <t>-14,31; 38,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -2,61</t>
+          <t>-31,47; -0,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
